--- a/Models/MidSeismic 4Floor 12M/PF M.xlsx
+++ b/Models/MidSeismic 4Floor 12M/PF M.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\Models\MidSeismic 4Floor 12M\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\Models\MidSeismic 4Floor 12M\Normal Two\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -269,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,6 +296,9 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+      <selection activeCell="B2" sqref="B2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1049,28 +1052,152 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>-44.695999999999998</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.1533</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>-95.617999999999995</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.8041</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>-147.34100000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.3161</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>-160.33600000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.4161999999999999</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>-179.49100000000001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.5030999999999999</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>-225.768</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.597</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>-225.76900000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2.3462999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>-225.834</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2.3477000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>-229.95</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.3805000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>-229.95500000000001</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.3193999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>-234.10900000000001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.3439000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>-234.113</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.853</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>-240.696</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.893</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>-240.68799999999999</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.7746</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>-266.87</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.9259999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>-239.49199999999999</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.2959000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,7 +1210,7 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+      <selection activeCell="B2" sqref="B2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1102,119 +1229,119 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
         <v>50</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>295.4289</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>51.845999999999997</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>306.33609999999999</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>130.11199999999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>524.79700000000003</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="6" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>185.339</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>608.21400000000006</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="7" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>199.86699999999999</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>620.48910000000001</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>231.59800000000001</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>633.50469999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>231.11199999999999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>411.34370000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>232.18299999999999</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>413.6121</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>238.43100000000001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>421.90390000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
         <v>238.45</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>421.94099999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="13" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>238.45</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>421.94119999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+    <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
         <v>238.45099999999999</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>421.94290000000001</v>
       </c>
     </row>
@@ -1230,7 +1357,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1250,95 +1377,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
         <v>-50</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>295.23309999999998</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>-51.6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>304.67899999999997</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>-129.47800000000001</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>523.43679999999995</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="6" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>-184.381</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>606.3229</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>-198.71799999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>618.41930000000002</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>-230.09899999999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>630.70240000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>-230.059</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>324.56009999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>-240.798</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>332.8657</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>-238.02799999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>320.80029999999999</v>
       </c>
     </row>
@@ -1353,7 +1480,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1373,101 +1500,101 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
         <v>-10.319000000000001</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>312.38380000000001</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>-13.688000000000001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>365.23610000000002</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>-37.173999999999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>524.29570000000001</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="6" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>-69.263000000000005</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>652.28510000000006</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="7" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>-80.936999999999998</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>673.72149999999999</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+    <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>-84.38</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>677.43719999999996</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+    <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>-90.183999999999997</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>681.58799999999997</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>-109.30800000000001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>686.84580000000005</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>-94.724000000000004</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>210.30260000000001</v>
       </c>
       <c r="D11" s="4"/>
@@ -1521,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C16"/>
+      <selection activeCell="B2" sqref="B2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1544,109 +1671,289 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="C3" s="9">
+        <v>374.13940000000002</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>3.5070000000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>386.88470000000001</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="C5" s="9">
+        <v>395.69069999999999</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+    <row r="6" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>4.1449999999999996</v>
+      </c>
+      <c r="C6" s="9">
+        <v>403.51440000000002</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>19.12</v>
+      </c>
+      <c r="C7" s="9">
+        <v>541.59270000000004</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+    <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>36.274999999999999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>639.89850000000001</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>36.28</v>
+      </c>
+      <c r="C9" s="9">
+        <v>484.4402</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>36.610999999999997</v>
+      </c>
+      <c r="C10" s="9">
+        <v>507.27460000000002</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>37.101999999999997</v>
+      </c>
+      <c r="C11" s="9">
+        <v>523.69569999999999</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>37.488999999999997</v>
+      </c>
+      <c r="C12" s="9">
+        <v>531.61419999999998</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>38.381</v>
+      </c>
+      <c r="C13" s="9">
+        <v>538.29139999999995</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+    <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>38.386000000000003</v>
+      </c>
+      <c r="C14" s="9">
+        <v>408.916</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>39.395000000000003</v>
+      </c>
+      <c r="C15" s="9">
+        <v>445.0489</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+    <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>39.953000000000003</v>
+      </c>
+      <c r="C16" s="9">
+        <v>448.90499999999997</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>49.664999999999999</v>
+      </c>
+      <c r="C17" s="9">
+        <v>455.3664</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>49.991</v>
+      </c>
+      <c r="C18" s="9">
+        <v>411.06240000000003</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
+        <v>50.948</v>
+      </c>
+      <c r="C19" s="9">
+        <v>417.2473</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>54.569000000000003</v>
+      </c>
+      <c r="C20" s="9">
+        <v>423.79640000000001</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>72.260999999999996</v>
+      </c>
+      <c r="C21" s="9">
+        <v>433.51409999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>72.656999999999996</v>
+      </c>
+      <c r="C22" s="9">
+        <v>389.93060000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
+        <v>73.119</v>
+      </c>
+      <c r="C23" s="9">
+        <v>392.8614</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>73.123999999999995</v>
+      </c>
+      <c r="C24" s="9">
+        <v>278.35899999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>76.311000000000007</v>
+      </c>
+      <c r="C25" s="9">
+        <v>315.9289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>79.045000000000002</v>
+      </c>
+      <c r="C26" s="9">
+        <v>323.97309999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
+        <v>79.271000000000001</v>
+      </c>
+      <c r="C27" s="9">
+        <v>323.1293</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>79.313999999999993</v>
+      </c>
+      <c r="C28" s="9">
+        <v>323.0652</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>79.313999999999993</v>
+      </c>
+      <c r="C29" s="9">
+        <v>323.06729999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
+        <v>79.325999999999993</v>
+      </c>
+      <c r="C30" s="9">
+        <v>323.1653</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>79.325999999999993</v>
+      </c>
+      <c r="C31" s="9">
+        <v>323.16579999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
+        <v>79.375</v>
+      </c>
+      <c r="C32" s="9">
+        <v>323.55759999999998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
